--- a/biology/Médecine/Muscle_carré_fémoral/Muscle_carré_fémoral.xlsx
+++ b/biology/Médecine/Muscle_carré_fémoral/Muscle_carré_fémoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral (ou muscle carré crural) est un muscle du membre inférieur.
 Il fait partie des muscles fessiers profonds et des muscles pelvi-trochantériens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral est un muscle aplati et quadrangulaire situé à la partie postérieure de l’articulation coxale reliant l'os coxal au fémur.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral se fixe sur le bord latéral de la tubérosité ischiatique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral se dirige transversalement derrière l'articulation coxale.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral se termine en s'insérant sur le tubercule du muscle carré fémoral situé à la jonction du tiers supérieur et des deux tiers inférieurs de la crête inter-trochantérique. 
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral est innervé par un nerf commun avec le muscle jumeau inférieur : le nerf du muscle carré fémoral issu des racines L4, L5 et S1 du plexus sacré.
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_carr%C3%A9_f%C3%A9moral</t>
+          <t>Muscle_carré_fémoral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle carré fémoral est rotateur externe et adducteur de la cuisse.
 </t>
